--- a/numpy/student_scores.xlsx
+++ b/numpy/student_scores.xlsx
@@ -461,12 +461,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>김춘자</t>
+          <t>김재호</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ai@example.com</t>
+          <t>junseocoe@example.org</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -488,12 +488,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>김현지</t>
+          <t>박성호</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>yeongil91@example.org</t>
+          <t>gangmyeongja@example.net</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -515,12 +515,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>김성호</t>
+          <t>박광수</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>seohyeongweon@example.net</t>
+          <t>dhwang@example.net</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -542,12 +542,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>배성훈</t>
+          <t>김동현</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>eunseoi@example.org</t>
+          <t>pi@example.org</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -569,12 +569,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>이준혁</t>
+          <t>류민석</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>haeun34@example.com</t>
+          <t>minjuni@example.com</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -596,12 +596,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>고주원</t>
+          <t>강진호</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>xhwang@example.org</t>
+          <t>yejin49@example.org</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -623,12 +623,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>김은서</t>
+          <t>이현지</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>donghyeoneom@example.com</t>
+          <t>bagseonghyeon@example.com</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -650,12 +650,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>조서영</t>
+          <t>고성민</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>gimseojun@example.net</t>
+          <t>caeweoni@example.net</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -677,12 +677,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>김민석</t>
+          <t>김성수</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gyeongsu96@example.org</t>
+          <t>gweonseoyeong@example.com</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -704,12 +704,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>전민지</t>
+          <t>김은경</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>kbag@example.com</t>
+          <t>yeonghyi97@example.net</t>
         </is>
       </c>
       <c r="C11" t="n">

--- a/numpy/student_scores.xlsx
+++ b/numpy/student_scores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,11 @@
           <t>평균</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>학점</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -484,6 +489,11 @@
       <c r="G2" t="n">
         <v>75.33</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -511,6 +521,11 @@
       <c r="G3" t="n">
         <v>65</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -538,6 +553,11 @@
       <c r="G4" t="n">
         <v>77</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -565,6 +585,11 @@
       <c r="G5" t="n">
         <v>68.67</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -592,6 +617,11 @@
       <c r="G6" t="n">
         <v>88</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -619,6 +649,11 @@
       <c r="G7" t="n">
         <v>78.33</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -646,6 +681,11 @@
       <c r="G8" t="n">
         <v>69.67</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -673,6 +713,11 @@
       <c r="G9" t="n">
         <v>68.33</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -700,6 +745,11 @@
       <c r="G10" t="n">
         <v>73</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -726,6 +776,11 @@
       </c>
       <c r="G11" t="n">
         <v>75.67</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
     </row>
   </sheetData>
